--- a/param_file_templates/Excel/LAKE_simple_bucketW_seb.xlsx
+++ b/param_file_templates/Excel/LAKE_simple_bucketW_seb.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -371,9 +371,6 @@
     <t>END</t>
   </si>
   <si>
-    <t>GROUND_CLASS</t>
-  </si>
-  <si>
     <t>ia_time_increment</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>LAKE_simple_bucketW_seb</t>
+  </si>
+  <si>
+    <t>SUBSURFACE_CLASS</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15">
         <v>0.25</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>15</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B106" s="7">
         <v>1</v>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110" s="6">
         <v>2</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110" t="s">
         <v>123</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>124</v>
-      </c>
-      <c r="E110" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B115" s="6">
         <v>0.05</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="C116" s="6"/>
     </row>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>15</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>15</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137" s="7">
         <v>1</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B140" s="6">
         <v>0.25</v>

--- a/param_file_templates/Excel/LAKE_simple_bucketW_seb.xlsx
+++ b/param_file_templates/Excel/LAKE_simple_bucketW_seb.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -59,9 +59,6 @@
     <t>surface emissivity</t>
   </si>
   <si>
-    <t>height of air temperature</t>
-  </si>
-  <si>
     <t>roughness length</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>lower</t>
   </si>
   <si>
-    <t>geothermal heat flux</t>
-  </si>
-  <si>
     <t>TOP</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>geographical coordinates</t>
   </si>
   <si>
-    <t>a.s.l.</t>
-  </si>
-  <si>
     <t>domain_depth</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>STRAT_linear</t>
   </si>
   <si>
-    <t>should match a GRID point, model domain extends to this depth</t>
-  </si>
-  <si>
     <t>dt_max</t>
   </si>
   <si>
@@ -242,9 +230,6 @@
     <t>[y]</t>
   </si>
   <si>
-    <t>if left empty, the entire output will be written out at the end</t>
-  </si>
-  <si>
     <t>provide in format dd.mm.yyyy; if left empty, the last timestamp of the forcing data set will be used</t>
   </si>
   <si>
@@ -377,12 +362,6 @@
     <t>CG_Beaufort_81_880_short.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">area of the </t>
-  </si>
-  <si>
-    <t>OUT_all</t>
-  </si>
-  <si>
     <t>LATERAL_CLASS</t>
   </si>
   <si>
@@ -414,6 +393,39 @@
   </si>
   <si>
     <t>SUBSURFACE_CLASS</t>
+  </si>
+  <si>
+    <t>list of LATERAL INTERACTION classes to be used for the run, must be initialized below</t>
+  </si>
+  <si>
+    <t>OUT_all_lateral</t>
+  </si>
+  <si>
+    <t>timestep of output</t>
+  </si>
+  <si>
+    <t>date of the year at which the output is written to an output file</t>
+  </si>
+  <si>
+    <t>interval after which output file is written - if left empty, the entire output will be written out at the end</t>
+  </si>
+  <si>
+    <t>name of the file with forcing data</t>
+  </si>
+  <si>
+    <t>surface elevation a.s.l.</t>
+  </si>
+  <si>
+    <t>vertical extent of the model domain - should match a GRID point</t>
+  </si>
+  <si>
+    <t>area of the model realization</t>
+  </si>
+  <si>
+    <t>geothermal heat flux at lower boundary</t>
+  </si>
+  <si>
+    <t>height at which air temperature is provided</t>
   </si>
 </sst>
 </file>
@@ -757,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,179 +783,181 @@
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" t="s">
         <v>90</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="D7" t="s">
         <v>93</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>97</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>101</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>103</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>105</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C14" t="s">
         <v>109</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E14" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="B15">
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,23 +968,23 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -978,64 +992,70 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0.25</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
+      <c r="D23" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -1043,32 +1063,35 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B33" s="5"/>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1077,12 +1100,12 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1091,37 +1114,37 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -1130,12 +1153,12 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>100</v>
@@ -1144,26 +1167,26 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B41">
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42">
         <v>0.05</v>
@@ -1172,12 +1195,12 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1186,30 +1209,30 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -1217,13 +1240,13 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1239,7 +1262,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,30 +1322,30 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -1330,213 +1353,213 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
-      <c r="B68">
-        <v>1</v>
+      <c r="B68" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
-      <c r="B69">
-        <v>0.5</v>
+      <c r="B69" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>41</v>
-      </c>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="8"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B80" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="D80" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>0</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>2</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>0.5</v>
+      </c>
+      <c r="C84">
+        <v>0.5</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="8"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="B92" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0</v>
       </c>
@@ -1544,7 +1567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -1578,30 +1601,30 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B106" s="7">
         <v>1</v>
@@ -1612,13 +1635,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" t="s">
         <v>17</v>
-      </c>
-      <c r="D108" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,19 +1663,19 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B110" s="6">
         <v>2</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D110" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -1686,12 +1709,12 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B113" s="6">
         <v>3600</v>
@@ -1703,12 +1726,12 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B114" s="6">
         <v>50000</v>
@@ -1720,12 +1743,12 @@
         <v>8</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B115" s="6">
         <v>0.05</v>
@@ -1734,16 +1757,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C116" s="6"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B117" s="6"/>
     </row>
@@ -1755,20 +1778,20 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B122" s="7">
         <v>1</v>
@@ -1779,13 +1802,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="D124" t="s">
         <v>17</v>
-      </c>
-      <c r="D124" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,12 +1859,12 @@
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B128" s="6">
         <v>100</v>
@@ -1864,7 +1887,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B130" s="6">
         <v>3600</v>
@@ -1876,12 +1899,12 @@
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B131" s="6">
         <v>50000</v>
@@ -1893,12 +1916,12 @@
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -1912,23 +1935,23 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" s="6"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B137" s="7">
         <v>1</v>
@@ -1941,18 +1964,18 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="D139" t="s">
         <v>17</v>
-      </c>
-      <c r="D139" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B140" s="6">
         <v>0.25</v>
@@ -1961,7 +1984,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
